--- a/Testing Document.xlsx
+++ b/Testing Document.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>Post</t>
   </si>
@@ -36,9 +36,6 @@
     <t>PASS / FAIL</t>
   </si>
   <si>
-    <t>ACCOUNT</t>
-  </si>
-  <si>
     <t>BIKE</t>
   </si>
   <si>
@@ -61,16 +58,152 @@
   </si>
   <si>
     <t>Get by {id}</t>
+  </si>
+  <si>
+    <t>https://localhost:44306/api/Account/Register</t>
+  </si>
+  <si>
+    <t>Create User</t>
+  </si>
+  <si>
+    <t>ACCOUNT TABLE</t>
+  </si>
+  <si>
+    <t>Add Token</t>
+  </si>
+  <si>
+    <t>https://localhost:44306/token</t>
+  </si>
+  <si>
+    <t>BODY</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>grant_type</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>PartName</t>
+  </si>
+  <si>
+    <t>ModelNumber</t>
+  </si>
+  <si>
+    <t>TypeOfPart</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CreatedUtc</t>
+  </si>
+  <si>
+    <t>NumberInInventory</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>https://localhost:44306/api/Part</t>
+  </si>
+  <si>
+    <t>https://localhost:44306/api/Shop</t>
+  </si>
+  <si>
+    <t>https://localhost:44306/api/shop</t>
+  </si>
+  <si>
+    <t>https://localhost:44306/api/shop/2</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>https://localhost:44306/api/User</t>
+  </si>
+  <si>
+    <t>https://localhost:44306/api/User?Name=John&amp;Bio=Just started life</t>
+  </si>
+  <si>
+    <t>PartId</t>
+  </si>
+  <si>
+    <t>OwnerId</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>PeronalId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Bio</t>
+  </si>
+  <si>
+    <t>ShopId</t>
+  </si>
+  <si>
+    <t>ModifiedUtc</t>
+  </si>
+  <si>
+    <t>TypeofPart</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>https://localhost:44306/api/Part/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,17 +226,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,17 +554,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="6" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="3" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -419,7 +587,9 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -440,13 +610,22 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -455,7 +634,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -468,7 +647,12 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="2"/>
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -479,9 +663,7 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -492,25 +674,36 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+    <row r="7" spans="1:11" s="6" customFormat="1">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -521,9 +714,6 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -536,7 +726,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -550,9 +740,11 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -563,7 +755,12 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="C12" s="2"/>
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -575,130 +772,350 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="D31" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B36" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>10</v>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B27" r:id="rId1"/>
+    <hyperlink ref="B20" r:id="rId2"/>
+    <hyperlink ref="B18" r:id="rId3"/>
+    <hyperlink ref="B19" r:id="rId4"/>
+    <hyperlink ref="B21" r:id="rId5"/>
+    <hyperlink ref="B22" r:id="rId6"/>
+    <hyperlink ref="B32" r:id="rId7"/>
+    <hyperlink ref="B34" r:id="rId8"/>
+    <hyperlink ref="B25:B26" r:id="rId9" display="https://localhost:44306/api/Part"/>
+    <hyperlink ref="B26" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/Testing Document.xlsx
+++ b/Testing Document.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>Post</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
   <si>
     <t>https://localhost:44306/api/Part/1</t>
@@ -560,7 +557,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -962,10 +959,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -982,6 +979,9 @@
     <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:12">
